--- a/MODRA_PLANNING/MODRA-Chemical order-08122025-Thanh.xlsx
+++ b/MODRA_PLANNING/MODRA-Chemical order-08122025-Thanh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh.nt\Desktop\GitHub\MODRA_Project\MODRA_PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D53493-F0CC-41E6-B9D0-98A1D70C52C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8003ABE3-CF7F-4C7A-BE26-56AFBE340E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNA and Primers" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>POS1_MEVs</t>
   </si>
@@ -120,21 +120,6 @@
   </si>
   <si>
     <t>BCMEAs_R_PRIMER (5'-3')</t>
-  </si>
-  <si>
-    <r>
-      <t>AACGATGCTGACGAGGATCCATGGAAAACTTCACGATTGATAAGGAAGGCAGTAGCTCTCCCACTTTGGATTACTATTAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCTGGAGGATCGCTTCAGGAGATGTGCAAGACCCCCTGGGGAGCAAAGGAGCCCCAGCCTACCCGCCTCGCCGAGTCCGAGATCTTGGCAAATAAGGTTCAAGAGGCGGAAGAGAACGAAGCCGGTTCTAAGTCCGAGAAGTCTGCGAAGTGGGAGAGTGGGGGAACCTACCAGTCTTACCTCAAGAACCGACAGAAGAACGGCTCTGAGCAGGACTGGAACACTTACATTGGAGGAGGATCAAATGCTAATGCTCCGGTCGAGCGATACCTGGAGGTCGATGGAGTCAAATACGCCGAGGCTGAGATTCTTGCGGGCTCAGCAGCGGAGGCTGCCAAGGCTGCGGGCTCAACATTAGTCGACGGCAAGGACACAATCAACAAAACACGACTCGCCAAACTGGCCAATGCCGTGATTTTTACCGGCGGTTCTTCTTACCGACGAAATAGCAAGTTTTTTGGCAACACCACCCACATCTACCGAAAGCTCTACGAGCGTGGGTCAACGGGCGCCGGCGTCTCTAACGCCGGATCTGACAAGGTCGTGATCTCCGAGAAGCAGATGCCCGGCGGGTCTACAGATGACCTCAGATGGTACGAGGCTACCCGTCAGCCACAGTACGCCGACGAGGTTATCGAGAACGCGAACAAGACCCGACTTGCTGGATCAGCTAACAAGGTTCAAGAGGCCGAGGAGAACGAGGCTTTTGTCGATAAGGCTAACGCGACTGAAGCAAAGACCGAGGAAAGCGAGATCCTGGCCAACAAGGTCCAGGAGGCAGAGGAAAACGAGGCATTTAAGTTGGACCCTAATCACAAGGATTACACTGGAGGAAAATACATGCACAATGCCGAGTCCGAGATTCTCGCTAACAAGGTCCAGGAGGCAGAGGAAAACGAGGCCTTTCTAATGCCCGATCGAGGAAGCGTCACCGAGAACCACATGCACAACGCCGAGAGCGAGATTCTCGCCAACAAGGTGCAAGAAGCCGAGGAGAACGAGGCTTTCACTGTGCTCAAGGAAGAGGACAAACGATCACACATGCACAACGCCGAGTCCGAGATTCTGGCAAACAAGGTGCAGGAGGCTGAGGAGAACGAGGCCTTTATTACCCCCAATACTACCTACTACGGGAATTTCGACATGCACAACGCCGAGAGCGAGATCCTGGCCAACAAGGTCCAGGAGGCTGAGGAGAATGAGGCATTCCAGTTCGCTAACAAGGAGGCCTGGAGACTCCTGAAGCTCGAGTAGCTACGGTACCA</t>
-    </r>
   </si>
   <si>
     <t>AACGATGCTGACGAGGATCCATGGGTAGTAAAGATAAAAAAACGCTGGTTGAAGCGGTTGGTCATGGTAAAATCGAGTCAGTTGGTTCAATCAAACTGTATGGCAGCGGTGTGCGTTACACCTATGGCCGCCGCGGCTCCATCACCATCGAGAACCTTGAGATCACCAATGCTGAACAGCTGGGTGCCTCTTTTAATGCTGCGATTCTGCGCGGTGTACACGTGATTGCTGAAGGCAGCAACATCTTTGAACTGGACACCGCAACCAACAGCCTGGGCAGCATTGTGCTGCGTAACATGTATCTGCACCAGAATGAAAGCCTGTCGGTGGTGAAAACACCGCTGATCTTCTTTGATGTTTATGGCACGCTGGTTGATGGCAAAGACACCATTATTCTGATTGAGAACAACTACCTGGAACGTGTTGACCGCAGCGGGATCAAACTGGTCGGCTCTGACCCGCTGGTACCGCCGTTTGACTACCGCCTGGTGGTGGTGCGTGGTAACCGTATTGAGAAAGCCGGTGGTGACAGCATCACCGTGCGTGACACCGATGGTGCGCTGATTGAATACAACATCTCTGCACCGGAATATCAGCCGAAAATCAACAAAGAGATCTGGCCGTTCCAGGCATCTAACACCGTGATTCAGTACAACGAGAGCTTTGAACAGATGGCGAACAAAGAGAACGACAAAGTGGTGCTGGATCTGGATGGTAGCCAGTCTGATGATATCCGCTGGTATGAAGCAACCCGCCAGGGCAGCGTGATGCAGTATAACTACAGCCACGGTTCTGATGCCAGCGGCCAGAACGTTCACGGCAAAGCAACCGGTAGCATGCTGATCATGAACGGTAACCACAAAGATTACACCGGTGGCAAATATGGCCGTACGGTACGTTATAACATCAGCCAGAACGACGGCAGCATGCTGATCATGAACCTGCACAACCGTGGTGGTGTGGTGCACGCGATCTATAACAACACCATCTTCAGCCCGTACGACTCGATTTACGGCCCGGCCTACACCGTGATTGACATCACCCCGAACACCACCTACTATGGTAACTTTGATATCTTCCTGTTTAACAACATCTTCTACTTCACCTTTGCCAAGAAAGAGGGCGGTGAAGGTATTATGCTGATTATGAACCTGCACTACGAGAAAACGCCGTGGGGTGCGAAAGAACCGCAAACTTTCTAACTCGAGTAGCTACGGTACCA</t>
@@ -258,12 +243,33 @@
   <si>
     <t>Dialysis tubing &amp; Clamps</t>
   </si>
+  <si>
+    <t>POS3_MEVs_rev1</t>
+  </si>
+  <si>
+    <t>POS4_MEVs_rev2</t>
+  </si>
+  <si>
+    <t>POS5_MEVs_rev3</t>
+  </si>
+  <si>
+    <t>AACGATGCTGACGAGGATCCATGGAAAACTTCACGATTGATAAGGAAGGCAGTAGCTCTCCCACTTTGGATTACTATTACGCTGGAGGATCGCTTCAGGAGATGTGCAAGACCCCCTGGGGAGCAAAGGAGCCCCAGCCTACCCGCCTCGCCGAGTCCGAGATCTTGGCAAATAAGGTTCAAGAGGCGGAAGAGAACGAAGCCGGTTCTAAGTCCGAGAAGTCTGCGAAGTGGGAGAGTGGGGGAACCTACCAGTCTTACCTCAAGAACCGACAGAAGAACGGCTCTGAGCAGGACTGGAACACTTACATTGGAGGAGGATCAAATGCTAATGCTCCGGTCGAGCGATACCTGGAGGTCGATGGAGTCAAATACGCCGAGGCTGAGATTCTTGCGGGCTCAGCAGCGGAGGCTGCCAAGGCTGCGGGCTCAACATTAGTCGACGGCAAGGACACAATCAACAAAACACGACTCGCCAAACTGGCCAATGCCGTGATTTTTACCGGCGGTTCTTCTTACCGACGAAATAGCAAGTTTTTTGGCAACACCACCCACATCTACCGAAAGCTCTACGAGCGTGGGTCAACGGGCGCCGGCGTCTCTAACGCCGGATCTGACAAGGTCGTGATCTCCGAGAAGCAGATGCCCGGCGGGTCTACAGATGACCTCAGATGGTACGAGGCTACCCGTCAGCCACAGTACGCCGACGAGGTTATCGAGAACGCGAACAAGACCCGACTTGCTGGATCAGCTAACAAGGTTCAAGAGGCCGAGGAGAACGAGGCTTTTGTCGATAAGGCTAACGCGACTGAAGCAAAGACCGAGGAAAGCGAGATCCTGGCCAACAAGGTCCAGGAGGCAGAGGAAAACGAGGCATTTAAGTTGGACCCTAATCACAAGGATTACACTGGAGGAAAATACATGCACAATGCCGAGTCCGAGATTCTCGCTAACAAGGTCCAGGAGGCAGAGGAAAACGAGGCCTTTCTAATGCCCGATCGAGGAAGCGTCACCGAGAACCACATGCACAACGCCGAGAGCGAGATTCTCGCCAACAAGGTGCAAGAAGCCGAGGAGAACGAGGCTTTCACTGTGCTCAAGGAAGAGGACAAACGATCACACATGCACAACGCCGAGTCCGAGATTCTGGCAAACAAGGTGCAGGAGGCTGAGGAGAACGAGGCCTTTATTACCCCCAATACTACCTACTACGGGAATTTCGACATGCACAACGCCGAGAGCGAGATCCTGGCCAACAAGGTCCAGGAGGCTGAGGAGAATGAGGCATTCCAGTTCGCTAACAAGGAGGCCTGGAGACTCCTGAAGCTCGAGTAGCTACGGTACCA</t>
+  </si>
+  <si>
+    <t>AACGATGCTGACGAGGATCCATGGACCGCTATGATGACAAAGAGCTGCCGGACAAAGTAGGGGGCGGAAGCGCGGCAGAAGCAGCAAAAGCCGCGAGCCCTGAAATCACCTTCTACGGCGCCGGTTCGGTCTTTAGCGCCGAAGAAGTGAACAAGGAATATGACAAAAAAGGCTCGGCTGCCCAGGCAGAAGGCGCAGATGGGAGCGCAGCGGAAGCGGCTAAAGCGGCGCCTCTGGAAGGTACTGCACCTGGGGAACTGCGTCAAGGAGGTAGTGCAGCTGAAGCAGCTAAAGCCGCTGGTGGCTCCGATGAAGACGCTCGCAAGCCGTCCGACGGCGGCAGTGAGTTCCGCACCCTCGTGGATGGCAAAGATACGATTGTCGGAGTTGAGGGGGGTTCACAGGACATGATTACTCTTCTGACGTGTGGGGGCGGTTCCCAGCGCGAGATTAAACAGTTTCAGCAAGGTGGGAGCGCGAAAGCAGCTGCCGCAGAGGCAGCGAAAGCCGCGCTGGTCAATGCTTATCGCGAGAGCTATAACTGGAGTCAAACCGACGACCTGCGCTGGTACGAAGCCGGTGGCTCTGCAGCCGAAGCGGCGAAGGCGGCCGGTAGCGATAAAGTCGTGATTTCAGAAAAACAGATGCCGGGTAGCGCCGCAGAAGCCGCAAAGGCTGCATACCAGCCAAAAATCAATAAAGAAATGCATAACAACGGGGGCTCAGCCGCGGAAGCTGCCAAGGCGGCTTATCCTTTTGGCCCAGAAGGTAAACTGGTAGATGGTGGCAGCGCGGCGGAAGCCGCCAAGGCAGCTAACACGGCGGATAAGAGCTCCTATATTTATAACACCGGTGGTTCCGCCGCTGAGGCGGCCAAGGCTGCAGGTGGTTCCTCCTACTACAACGACGCGAAAGAACTGGGCGGTTCTGCGGCAGAGGCTGCCAAAGCAGCCTACGATCCGACTTTGCCGGTGGAGGAACGCGTGCTGGGTAGTTCCTCGATCGACGCCCCGAACCAGACCGGCGAAAAGGCGGCGGAGGCTGCGAAGGCAGCCTTTAAAAACGAAGCGGGCTATTTCGTTGGCTCCGCGGCTGAAGCTGCGAAAGCGGCCGGCAGCCGCATCGATGAGAGTTCGGAAACGCCGATCGATACGTAACTCGAGTAGCTACGGTACCA</t>
+  </si>
+  <si>
+    <t>AACGATGCTGACGAGGATCCATGGATCGCTATGATGACAAAGAGCTGCCTGATAAAGTTGGTGGGGGATCGGCGGCCGAAGCAGCGAAGGCCGCGAGTCCTGAAATCACTTTTTATGGTGCTGGCAGTGTGTTCTCCGCGGAAGAGGTCAACAAGGAGTATGACAAAAAAGGCTCGGCAGCTCAAGCAGAAGGCGCTGATGGCTCAGCCGCAGAGGCCGCTAAAGCTGCACCACTTGAAGGTACTGCCCCTGGAGAACTGCGTCAGGGGGGGTCGGCAGCAGAAGCGGCAAAAGCGGCAGGTGGGTCTGATGAAGATGCTCGTAAACCGTCTGATGGCGGATCTGAATTCCGTACCTTGGTTGACGGAAAAGATACCATCGTTGGGGTGGAAGGTGGGAGTCAAGATATGATTACTTTATTAACCTGCGGTGGAGGGTCACAGCGCGAAATTAAGCAGTTCCAGCAAGGGGGCAGTGCAAAAGCAGCGGCGGCGGAGGCCGCGAAAGCCGCCCTGGTAAACGCTTACCGTGAGAGTTATAATTGGAGTCAGACTGACGACCTGCGTTGGTATGAAGCGGGTGGAAGTGCAGCTGAGGCTGCAAAGGCGGCTGGAAGCGATAAAGTAGTCATTTCAGAGAAGCAGATGCCTGGGTCTGCGGCTGAGGCAGCCAAAGCGGCTTACCAGCCGAAGATTAACAAAGAAATGCATAACAACGGTGGTTCGGCCGCGGAGGCAGCGAAAGCTGCGTACCCATTCGGTCCGGAAGGTAAACTGGTGGATGGAGGTAGTGCCGCGGAAGCCGCGAAGGCTGCTAATACCGCCGATAAAAGTTCATATATTTATAATACCGGCGGCAGCGCCGCAGAAGCCGCTAAGGCAGCGGGAGGCTCTGGTGAAGTTAAACAATGGAACACCGGGGGCTCTGCGGCGGAAGCAGCTAAAGCAGCTTATGATCCGACGTTGCCGGTGGAAGAACGCGTACTTGGGTCTTTTAAAAATGAAGCAGGCTATTTCGTGGCTGCGGAAGCTGCCAAAGCCGCCTCATACTACAATGACGCGAAAGAACTGGCAGCTGAAGCGGCCAAGGCGGCGGGTTCTCGTATCGATGAGAGCAGCGAAACTCCGATCGACACTTAACTCGAGTAGCTACGGTACCA</t>
+  </si>
+  <si>
+    <t>AACGATGCTGACGAGGATCCATGGATCGCTATGACGATAAAGAGCTTCCGGACAAGGTCGGACCGGGACCCGGACTCCGCATGAAACTCCCTAAGAGCAGTCCGGAGATTACGTTCTATGGCGCAGGTAGCGTGGGACCAGGCCCGGGCCTTCGGATGAAACTGCCCAAATCTGCCGCCCAGGCGGAAGGCGCAGACGGTCCGGGCCCAGGGCTCAGGATGAAACTACCGAAGAGCCCACTTGAAGGTACGGCTCCAGGCGAACTACGCCAGGGACCGGGTCCGGGGCTTCGCATGAAACTCCCGAAAAGCGATGAAGATGCCCGTAAACCGTCAGACGGAGGTAGCGAGTTTCGCACCCTCGTTGACGGCAAAGATACAATCGGCCCGGGGCCTGGGCTGCGAATGAAATTGCCTAAATCGCAGCGCGAAATTAAACAATTCCAGCAAGGACCAGGTCCAGGGCTGAGGATGAAACTGCCAAAAAGTGATAAGGTGGTCATTTCGGAGAAACAGATGCCCGGTCCCGGTCCTGGCCTCCGGATGAAGTTACCAAAAAGTTATCAGCCGAAAATAAATAAAGAGATGCACAACAACGGACCTGGCCCAGGCCTTCGCATGAAGCTCCCAAAAAGCTATCCGTTCGGCCCTGAGGGCAAGCTTGTCGACGGCGGGCCGGGGCCAGGCCTTAGAATGAAACTTCCCAAATCAAACACAGCCGACAAAAGCTCATATATCTACAACACTGGCCCTGGTCCTGGGTTGCGGATGAAGCTACCGAAATCCTATGACCCGACTTTGCCTGTAGAGGAGCGTGTCCTGGGTTCATTTAAGAACGAAGCGGGTTACTTCGTGGGACCGGGGCCGGGCCTGCGTATGAAGCTGCCTAAAAGCAGCTATTACAATGACGCAAAAGAACTTGGTCCGGGTCCGGGACTGAGAATGAAGCTGCCGAAATCCCGCATTGATGAATCTAGCGAAACCCCGATTGATACGGGGCCCGGACCGGGGTTAAGGATGAAATTACCGAAAAGCAGCTCGATCGACGCGCCAAACCAAACAGGCGAAAAAGGGCCGGGTCCCGGATTACGAATGAAGTTGCCGAAGTCGCTCCACAACCGCGGGGGGGTGGTCCATGGGCCGGGACCTGGTCTTCGTATGAAGCTTCCGAAGAGTCCGTACGATTCTATTTACGGCCCAGCGTATACCGGCCCGGGTCCAGGTTTACGTATGAAACTACCCAAAAGCATTACTCCAAACACCACATATTACGGCAATTTTGATGGCCCTGGCCCTGGGCTGCGCATGAAATTGCCGAAATCATTCGCAAAAAAAGAAGGCGGTGAAGGCATCGGTCCAGGACCCGGTCTCCGTATGAAATTACCAAAATCAGCGACCTATAATTATCAACCGCCACGATCCACGGGTGTGTAACTCGAGTAGCTACGGTACCA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +311,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,13 +337,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +692,7 @@
         <v>1345</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +703,7 @@
         <v>1222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +714,7 @@
         <v>1177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +725,7 @@
         <v>1159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +736,7 @@
         <v>1453</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,6 +759,39 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1177</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1159</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1453</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,15 +867,15 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,12 +931,12 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -899,7 +944,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -907,7 +952,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -915,7 +960,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -923,7 +968,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -931,7 +976,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -939,34 +984,34 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B958D-644F-4742-A051-EEFF1D22D5FE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,50 +1045,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
